--- a/опт и Краснодар/2023/12,23/26,12,23 Патяка/Заказ ПОКОМ Патяки 26.12.23..xlsx
+++ b/опт и Краснодар/2023/12,23/26,12,23 Патяка/Заказ ПОКОМ Патяки 26.12.23..xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\26,12,23 Патяка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2023\12,23\26,12,23 Патяка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB6F754-2E76-4E48-A97C-13778FB6DCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5F74A7-71A0-40E5-8F99-EC390B953B0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Заказ!$D$1:$D$39</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -174,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +252,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,6 +299,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -510,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="2"/>
@@ -650,6 +665,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -951,8 +978,8 @@
   </sheetPr>
   <dimension ref="B1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -972,7 +999,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="51" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1816,16 +1843,16 @@
       </c>
     </row>
     <row r="18" spans="2:32" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="38">
-        <v>1</v>
-      </c>
-      <c r="D18" s="31">
+      <c r="C18" s="49">
+        <v>1</v>
+      </c>
+      <c r="D18" s="50">
         <v>200</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="50">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
@@ -1922,16 +1949,16 @@
       </c>
     </row>
     <row r="20" spans="2:32" ht="16.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="49">
         <v>0.35</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="50">
         <v>300</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="50">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
